--- a/data/teams/leagues/Uruguay Primera División_averages.xlsx
+++ b/data/teams/leagues/Uruguay Primera División_averages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE17"/>
+  <dimension ref="A1:DC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,74 +448,98 @@
     <col width="19.2" customWidth="1" min="13" max="13"/>
     <col width="25.2" customWidth="1" min="14" max="14"/>
     <col width="24" customWidth="1" min="15" max="15"/>
-    <col width="25.2" customWidth="1" min="16" max="16"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
     <col width="25.2" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
+    <col width="25.2" customWidth="1" min="18" max="18"/>
     <col width="22.8" customWidth="1" min="19" max="19"/>
-    <col width="33.6" customWidth="1" min="20" max="20"/>
-    <col width="21.6" customWidth="1" min="21" max="21"/>
-    <col width="15.6" customWidth="1" min="22" max="22"/>
-    <col width="28.8" customWidth="1" min="23" max="23"/>
+    <col width="22.8" customWidth="1" min="20" max="20"/>
+    <col width="33.6" customWidth="1" min="21" max="21"/>
+    <col width="21.6" customWidth="1" min="22" max="22"/>
+    <col width="15.6" customWidth="1" min="23" max="23"/>
     <col width="28.8" customWidth="1" min="24" max="24"/>
-    <col width="30" customWidth="1" min="25" max="25"/>
+    <col width="28.8" customWidth="1" min="25" max="25"/>
     <col width="30" customWidth="1" min="26" max="26"/>
-    <col width="32.4" customWidth="1" min="27" max="27"/>
-    <col width="30" customWidth="1" min="28" max="28"/>
-    <col width="22.8" customWidth="1" min="29" max="29"/>
-    <col width="24" customWidth="1" min="30" max="30"/>
+    <col width="30" customWidth="1" min="27" max="27"/>
+    <col width="32.4" customWidth="1" min="28" max="28"/>
+    <col width="30" customWidth="1" min="29" max="29"/>
+    <col width="22.8" customWidth="1" min="30" max="30"/>
     <col width="24" customWidth="1" min="31" max="31"/>
-    <col width="30" customWidth="1" min="32" max="32"/>
-    <col width="27.6" customWidth="1" min="33" max="33"/>
-    <col width="21.6" customWidth="1" min="34" max="34"/>
-    <col width="27.6" customWidth="1" min="35" max="35"/>
-    <col width="24" customWidth="1" min="36" max="36"/>
-    <col width="28.8" customWidth="1" min="37" max="37"/>
-    <col width="30" customWidth="1" min="38" max="38"/>
-    <col width="19.2" customWidth="1" min="39" max="39"/>
-    <col width="19.2" customWidth="1" min="40" max="40"/>
-    <col width="25.2" customWidth="1" min="41" max="41"/>
-    <col width="24" customWidth="1" min="42" max="42"/>
-    <col width="25.2" customWidth="1" min="43" max="43"/>
-    <col width="25.2" customWidth="1" min="44" max="44"/>
-    <col width="22.8" customWidth="1" min="45" max="45"/>
+    <col width="24" customWidth="1" min="32" max="32"/>
+    <col width="9.6" customWidth="1" min="33" max="33"/>
+    <col width="9.6" customWidth="1" min="34" max="34"/>
+    <col width="9.6" customWidth="1" min="35" max="35"/>
+    <col width="9.6" customWidth="1" min="36" max="36"/>
+    <col width="9.6" customWidth="1" min="37" max="37"/>
+    <col width="9.6" customWidth="1" min="38" max="38"/>
+    <col width="7.199999999999999" customWidth="1" min="39" max="39"/>
+    <col width="18" customWidth="1" min="40" max="40"/>
+    <col width="18" customWidth="1" min="41" max="41"/>
+    <col width="18" customWidth="1" min="42" max="42"/>
+    <col width="24" customWidth="1" min="43" max="43"/>
+    <col width="24" customWidth="1" min="44" max="44"/>
+    <col width="24" customWidth="1" min="45" max="45"/>
     <col width="22.8" customWidth="1" min="46" max="46"/>
-    <col width="33.6" customWidth="1" min="47" max="47"/>
-    <col width="21.6" customWidth="1" min="48" max="48"/>
-    <col width="15.6" customWidth="1" min="49" max="49"/>
-    <col width="28.8" customWidth="1" min="50" max="50"/>
-    <col width="28.8" customWidth="1" min="51" max="51"/>
-    <col width="30" customWidth="1" min="52" max="52"/>
-    <col width="30" customWidth="1" min="53" max="53"/>
+    <col width="21.6" customWidth="1" min="47" max="47"/>
+    <col width="32.4" customWidth="1" min="48" max="48"/>
+    <col width="32.4" customWidth="1" min="49" max="49"/>
+    <col width="31.2" customWidth="1" min="50" max="50"/>
+    <col width="31.2" customWidth="1" min="51" max="51"/>
+    <col width="31.2" customWidth="1" min="52" max="52"/>
+    <col width="31.2" customWidth="1" min="53" max="53"/>
     <col width="32.4" customWidth="1" min="54" max="54"/>
-    <col width="30" customWidth="1" min="55" max="55"/>
-    <col width="22.8" customWidth="1" min="56" max="56"/>
-    <col width="24" customWidth="1" min="57" max="57"/>
-    <col width="24" customWidth="1" min="58" max="58"/>
-    <col width="22.8" customWidth="1" min="59" max="59"/>
-    <col width="28.8" customWidth="1" min="60" max="60"/>
-    <col width="25.2" customWidth="1" min="61" max="61"/>
+    <col width="32.4" customWidth="1" min="55" max="55"/>
+    <col width="30" customWidth="1" min="56" max="56"/>
+    <col width="27.6" customWidth="1" min="57" max="57"/>
+    <col width="21.6" customWidth="1" min="58" max="58"/>
+    <col width="27.6" customWidth="1" min="59" max="59"/>
+    <col width="24" customWidth="1" min="60" max="60"/>
+    <col width="28.8" customWidth="1" min="61" max="61"/>
     <col width="30" customWidth="1" min="62" max="62"/>
-    <col width="31.2" customWidth="1" min="63" max="63"/>
-    <col width="20.4" customWidth="1" min="64" max="64"/>
-    <col width="20.4" customWidth="1" min="65" max="65"/>
-    <col width="26.4" customWidth="1" min="66" max="66"/>
+    <col width="19.2" customWidth="1" min="63" max="63"/>
+    <col width="19.2" customWidth="1" min="64" max="64"/>
+    <col width="25.2" customWidth="1" min="65" max="65"/>
+    <col width="24" customWidth="1" min="66" max="66"/>
     <col width="25.2" customWidth="1" min="67" max="67"/>
-    <col width="26.4" customWidth="1" min="68" max="68"/>
-    <col width="26.4" customWidth="1" min="69" max="69"/>
-    <col width="24" customWidth="1" min="70" max="70"/>
-    <col width="24" customWidth="1" min="71" max="71"/>
-    <col width="34.8" customWidth="1" min="72" max="72"/>
-    <col width="22.8" customWidth="1" min="73" max="73"/>
-    <col width="16.8" customWidth="1" min="74" max="74"/>
-    <col width="30" customWidth="1" min="75" max="75"/>
+    <col width="25.2" customWidth="1" min="68" max="68"/>
+    <col width="22.8" customWidth="1" min="69" max="69"/>
+    <col width="22.8" customWidth="1" min="70" max="70"/>
+    <col width="33.6" customWidth="1" min="71" max="71"/>
+    <col width="21.6" customWidth="1" min="72" max="72"/>
+    <col width="15.6" customWidth="1" min="73" max="73"/>
+    <col width="28.8" customWidth="1" min="74" max="74"/>
+    <col width="28.8" customWidth="1" min="75" max="75"/>
     <col width="30" customWidth="1" min="76" max="76"/>
-    <col width="31.2" customWidth="1" min="77" max="77"/>
-    <col width="31.2" customWidth="1" min="78" max="78"/>
-    <col width="33.6" customWidth="1" min="79" max="79"/>
-    <col width="31.2" customWidth="1" min="80" max="80"/>
+    <col width="30" customWidth="1" min="77" max="77"/>
+    <col width="32.4" customWidth="1" min="78" max="78"/>
+    <col width="30" customWidth="1" min="79" max="79"/>
+    <col width="22.8" customWidth="1" min="80" max="80"/>
     <col width="24" customWidth="1" min="81" max="81"/>
-    <col width="25.2" customWidth="1" min="82" max="82"/>
-    <col width="25.2" customWidth="1" min="83" max="83"/>
+    <col width="24" customWidth="1" min="82" max="82"/>
+    <col width="22.8" customWidth="1" min="83" max="83"/>
+    <col width="28.8" customWidth="1" min="84" max="84"/>
+    <col width="25.2" customWidth="1" min="85" max="85"/>
+    <col width="30" customWidth="1" min="86" max="86"/>
+    <col width="31.2" customWidth="1" min="87" max="87"/>
+    <col width="20.4" customWidth="1" min="88" max="88"/>
+    <col width="20.4" customWidth="1" min="89" max="89"/>
+    <col width="26.4" customWidth="1" min="90" max="90"/>
+    <col width="25.2" customWidth="1" min="91" max="91"/>
+    <col width="26.4" customWidth="1" min="92" max="92"/>
+    <col width="26.4" customWidth="1" min="93" max="93"/>
+    <col width="24" customWidth="1" min="94" max="94"/>
+    <col width="24" customWidth="1" min="95" max="95"/>
+    <col width="34.8" customWidth="1" min="96" max="96"/>
+    <col width="22.8" customWidth="1" min="97" max="97"/>
+    <col width="16.8" customWidth="1" min="98" max="98"/>
+    <col width="30" customWidth="1" min="99" max="99"/>
+    <col width="30" customWidth="1" min="100" max="100"/>
+    <col width="31.2" customWidth="1" min="101" max="101"/>
+    <col width="31.2" customWidth="1" min="102" max="102"/>
+    <col width="33.6" customWidth="1" min="103" max="103"/>
+    <col width="31.2" customWidth="1" min="104" max="104"/>
+    <col width="24" customWidth="1" min="105" max="105"/>
+    <col width="25.2" customWidth="1" min="106" max="106"/>
+    <col width="25.2" customWidth="1" min="107" max="107"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,340 +620,460 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>overallGoalCount</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>home_avg_fh_corners</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>home_avg_2h_corners</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>home_avg_fh_cards</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_avg_2h_cards</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>home_avg_dangerous_attacks</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>home_avg_attacks</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>home_avg_xg</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>home_avg_penalties_won</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>home_avg_penalty_goals</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>home_avg_penalty_missed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>home_avg_0_10_min_goals</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>home_avg_corners_0_10_min</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>home_avg_cards_0_10_min</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>home_avg_throwins</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>home_avg_freekicks</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>home_avg_goalkicks</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>over05</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>over15</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>over25</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>over35</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>over45</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>over55</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>btts</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_x</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over15</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over25</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over35</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_btts_yes</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_btts_no</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_corners_under_85</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_corners_under_95</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_corners_over_85</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_corners_over_95</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_over05</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_over15</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_under05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_under15</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_conceded</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_scored</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>away_avg_yellow_cards</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>away_avg_red_cards</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOnTarget</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOffTarget</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shots</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fouls</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>away_avg_possession</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_num</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_corners</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_corners</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_cards</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_cards</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>away_avg_dangerous_attacks</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>away_avg_attacks</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>away_avg_xg</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalties_won</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_goals</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_missed</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>away_avg_0_10_min_goals</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners_0_10_min</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_0_10_min</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>away_avg_throwins</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>away_avg_freekicks</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goalkicks</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>total_avg_corners</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>total_avg_yellow_cards</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>total_avg_red_cards</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>total_avg_shotsOnTarget</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>total_avg_shotsOffTarget</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>total_avg_shots</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>total_avg_fouls</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>total_avg_possession</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>total_avg_cards_num</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>total_avg_fh_corners</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>total_avg_2h_corners</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>total_avg_fh_cards</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>total_avg_2h_cards</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>total_avg_dangerous_attacks</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>total_avg_attacks</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>total_avg_xg</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>total_avg_penalties_won</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>total_avg_penalty_goals</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>total_avg_penalty_missed</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>total_avg_0_10_min_goals</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>total_avg_corners_0_10_min</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>total_avg_cards_0_10_min</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>total_avg_throwins</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>total_avg_freekicks</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>total_avg_goalkicks</t>
         </is>
@@ -984,207 +1128,279 @@
         <v>2.74</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
       </c>
       <c r="R2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.68</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>2.05</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>52.58</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>88</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1.21</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.11</v>
       </c>
       <c r="X2" t="n">
         <v>0.11</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>12.89</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>4.32</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD2" t="n">
         <v>1.35</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="BE2" t="n">
         <v>1.18</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="BF2" t="n">
         <v>3.94</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="BG2" t="n">
         <v>2.71</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="BH2" t="n">
         <v>0.12</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="BI2" t="n">
         <v>2.76</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="BJ2" t="n">
         <v>4.82</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="BK2" t="n">
         <v>7.59</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="BL2" t="n">
         <v>5.88</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="BM2" t="n">
         <v>53.94</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="BN2" t="n">
         <v>3</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="BO2" t="n">
         <v>1.47</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="BP2" t="n">
         <v>2.47</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BQ2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BR2" t="n">
         <v>1.94</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BS2" t="n">
         <v>53.94</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BT2" t="n">
         <v>104.12</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BU2" t="n">
         <v>1.07</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BV2" t="n">
         <v>0.06</v>
       </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>0.29</v>
       </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
         <v>12.76</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="CC2" t="n">
         <v>1</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="CD2" t="n">
         <v>5.06</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="CE2" t="n">
         <v>4.14</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="CF2" t="n">
         <v>2.69</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="CG2" t="n">
         <v>0.08</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="CH2" t="n">
         <v>3.33</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="CI2" t="n">
         <v>4.92</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="CJ2" t="n">
         <v>8.25</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="CK2" t="n">
         <v>6.39</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="CL2" t="n">
         <v>53.55</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CM2" t="n">
         <v>2.86</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="CN2" t="n">
         <v>1.83</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CO2" t="n">
         <v>2.31</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CP2" t="n">
         <v>0.77</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CQ2" t="n">
         <v>2</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CR2" t="n">
         <v>53.22</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CS2" t="n">
         <v>95.61</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CT2" t="n">
         <v>1.14</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CU2" t="n">
         <v>0.09</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CV2" t="n">
         <v>0.06</v>
       </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
         <v>0.03</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CY2" t="n">
         <v>0.31</v>
       </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
         <v>12.83</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="DB2" t="n">
         <v>0.64</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="DC2" t="n">
         <v>4.67</v>
       </c>
     </row>
@@ -1237,207 +1453,279 @@
         <v>3.35</v>
       </c>
       <c r="P3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.47</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>1.35</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.82</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2.24</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>48.65</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>80.65000000000001</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.87</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.18</v>
       </c>
       <c r="X3" t="n">
         <v>0.18</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.12</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.24</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.41</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>3.94</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD3" t="n">
         <v>1.47</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="BE3" t="n">
         <v>0.79</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="BF3" t="n">
         <v>3.89</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="BG3" t="n">
         <v>3.42</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="BH3" t="n">
         <v>0.26</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="BI3" t="n">
         <v>2.53</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="BJ3" t="n">
         <v>4.79</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="BK3" t="n">
         <v>7.32</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="BL3" t="n">
         <v>8.74</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="BM3" t="n">
         <v>44.32</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="BN3" t="n">
         <v>3.68</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="BO3" t="n">
         <v>1.58</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BP3" t="n">
         <v>2.32</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BQ3" t="n">
         <v>1.21</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="BR3" t="n">
         <v>2.47</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="BS3" t="n">
         <v>45.21</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="BT3" t="n">
         <v>87.84</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="BU3" t="n">
         <v>0.97</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BV3" t="n">
         <v>0.11</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BW3" t="n">
         <v>0.11</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>0.16</v>
       </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
         <v>13.84</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="CC3" t="n">
         <v>1.58</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="CD3" t="n">
         <v>4.89</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="CE3" t="n">
         <v>3.28</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="CF3" t="n">
         <v>3.11</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="CG3" t="n">
         <v>0.27</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="CH3" t="n">
         <v>2.5</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="CI3" t="n">
         <v>4.25</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="CJ3" t="n">
         <v>6.75</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="CK3" t="n">
         <v>7.14</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="CL3" t="n">
         <v>44.56</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CM3" t="n">
         <v>3.52</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="CN3" t="n">
         <v>1.53</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="CO3" t="n">
         <v>1.86</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="CP3" t="n">
         <v>1.03</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CQ3" t="n">
         <v>2.36</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CR3" t="n">
         <v>46.83</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CS3" t="n">
         <v>84.44</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CT3" t="n">
         <v>0.92</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CU3" t="n">
         <v>0.14</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CV3" t="n">
         <v>0.14</v>
       </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
         <v>0.06</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CY3" t="n">
         <v>0.2</v>
       </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
         <v>11.5</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="DB3" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="DC3" t="n">
         <v>4.44</v>
       </c>
     </row>
@@ -1490,207 +1778,279 @@
         <v>2.67</v>
       </c>
       <c r="P4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>2.33</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.06</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>1.61</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>55.61</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>86.67</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>1.36</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.11</v>
       </c>
       <c r="X4" t="n">
         <v>0.11</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.39</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>13.17</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.67</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>3.33</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD4" t="n">
         <v>1.06</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="BE4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="BF4" t="n">
         <v>3.83</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="BG4" t="n">
         <v>2.89</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="BH4" t="n">
         <v>0.22</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="BI4" t="n">
         <v>3.72</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="BJ4" t="n">
         <v>5.72</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="BK4" t="n">
         <v>9.44</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="BL4" t="n">
         <v>10.22</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="BM4" t="n">
         <v>44.78</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="BN4" t="n">
         <v>3.28</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="BO4" t="n">
         <v>1.67</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BP4" t="n">
         <v>1.67</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="BQ4" t="n">
         <v>1.33</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BR4" t="n">
         <v>1.78</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BS4" t="n">
         <v>58.44</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="BT4" t="n">
         <v>100.56</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BU4" t="n">
         <v>1.29</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="BV4" t="n">
         <v>0.11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>47.17</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>57.03</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>93.62</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>1.33</v>
       </c>
       <c r="BW4" t="n">
         <v>0.11</v>
       </c>
       <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>47.17</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>57.03</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>93.62</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CU4" t="n">
         <v>0.11</v>
       </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="CV4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
         <v>0.03</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CY4" t="n">
         <v>0.23</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CZ4" t="n">
         <v>0.06</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="DA4" t="n">
         <v>14.42</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="DB4" t="n">
         <v>0.89</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="DC4" t="n">
         <v>4.58</v>
       </c>
     </row>
@@ -1743,207 +2103,279 @@
         <v>2.24</v>
       </c>
       <c r="P5" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.65</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2.71</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.59</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.59</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>60.29</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>99.23999999999999</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>1.36</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.06</v>
       </c>
       <c r="X5" t="n">
         <v>0.06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.18</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.53</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0.12</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>11.65</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>1.12</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>4.12</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD5" t="n">
         <v>1.21</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="BE5" t="n">
         <v>0.84</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="BF5" t="n">
         <v>4.79</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="BG5" t="n">
         <v>2.26</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="BH5" t="n">
         <v>0.26</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="BI5" t="n">
         <v>3</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="BJ5" t="n">
         <v>6</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="BK5" t="n">
         <v>9</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="BL5" t="n">
         <v>7.11</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="BM5" t="n">
         <v>47.11</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="BN5" t="n">
         <v>2.79</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="BO5" t="n">
         <v>2.16</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="BP5" t="n">
         <v>2.21</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BQ5" t="n">
         <v>0.84</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BR5" t="n">
         <v>1.68</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BS5" t="n">
         <v>55.84</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="BT5" t="n">
         <v>90.53</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="BU5" t="n">
         <v>1.17</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BV5" t="n">
         <v>0.11</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BW5" t="n">
         <v>0.11</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BX5" t="n">
         <v>-0.05</v>
       </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>0.37</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="CA5" t="n">
         <v>-0.05</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="CB5" t="n">
         <v>17.47</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="CC5" t="n">
         <v>1.16</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="CD5" t="n">
         <v>3.95</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="CE5" t="n">
         <v>5.05</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="CF5" t="n">
         <v>2.19</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="CG5" t="n">
         <v>0.17</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="CH5" t="n">
         <v>3.36</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="CI5" t="n">
         <v>6.28</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="CJ5" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="CK5" t="n">
         <v>6.59</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="CL5" t="n">
         <v>49.36</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CM5" t="n">
         <v>2.53</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="CN5" t="n">
         <v>2.39</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CO5" t="n">
         <v>2.45</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CP5" t="n">
         <v>0.72</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CQ5" t="n">
         <v>1.64</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CR5" t="n">
         <v>57.94</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CS5" t="n">
         <v>94.64</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CT5" t="n">
         <v>1.26</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CU5" t="n">
         <v>0.09</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CV5" t="n">
         <v>0.09</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CW5" t="n">
         <v>-0.03</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CX5" t="n">
         <v>0.08</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CY5" t="n">
         <v>0.45</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CZ5" t="n">
         <v>0.03</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="DA5" t="n">
         <v>14.72</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="DB5" t="n">
         <v>1.14</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="DC5" t="n">
         <v>4.03</v>
       </c>
     </row>
@@ -1996,207 +2428,279 @@
         <v>2.89</v>
       </c>
       <c r="P6" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.17</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>2.5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.72</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>2.06</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>56.83</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>100.44</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1.47</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>0.17</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.06</v>
       </c>
       <c r="Z6" t="n">
         <v>0.06</v>
       </c>
       <c r="AA6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>9.83</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>3.11</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD6" t="n">
         <v>1.22</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="BE6" t="n">
         <v>0.78</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="BF6" t="n">
         <v>3.94</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="BG6" t="n">
         <v>1.72</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="BH6" t="n">
         <v>0.06</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="BI6" t="n">
         <v>3.22</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="BJ6" t="n">
         <v>5.56</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="BK6" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="BL6" t="n">
         <v>6.72</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="BM6" t="n">
         <v>50.06</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="BN6" t="n">
         <v>1.89</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="BO6" t="n">
         <v>2.06</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="BP6" t="n">
         <v>1.89</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="BQ6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="BR6" t="n">
         <v>1.22</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="BS6" t="n">
         <v>48.33</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="BT6" t="n">
         <v>92.78</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="BU6" t="n">
         <v>1.14</v>
       </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
         <v>-0.06</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BY6" t="n">
         <v>0.17</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BZ6" t="n">
         <v>0.5</v>
       </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
         <v>15.06</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="CC6" t="n">
         <v>1.11</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="CD6" t="n">
         <v>4.67</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="CE6" t="n">
         <v>4.31</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="CF6" t="n">
         <v>2.16</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="CG6" t="n">
         <v>0.12</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="CH6" t="n">
         <v>3.89</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="CI6" t="n">
         <v>6.36</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="CJ6" t="n">
         <v>10.25</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="CK6" t="n">
         <v>6</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="CL6" t="n">
         <v>51.84</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CM6" t="n">
         <v>2.39</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="CN6" t="n">
         <v>2.12</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="CO6" t="n">
         <v>2.19</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="CP6" t="n">
         <v>0.64</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CQ6" t="n">
         <v>1.64</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CR6" t="n">
         <v>52.58</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CS6" t="n">
         <v>96.61</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CT6" t="n">
         <v>1.31</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CU6" t="n">
         <v>0.08</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CV6" t="n">
         <v>0.06</v>
       </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
         <v>0.12</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CY6" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
         <v>12.44</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="DB6" t="n">
         <v>1.02</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="DC6" t="n">
         <v>3.89</v>
       </c>
     </row>
@@ -2249,207 +2753,279 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="P7" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.28</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>2.06</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.06</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.61</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>65.33</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>108</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>1.35</v>
-      </c>
-      <c r="W7" t="n">
-        <v>-0.17</v>
       </c>
       <c r="X7" t="n">
         <v>-0.17</v>
       </c>
       <c r="Y7" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Z7" t="n">
         <v>-0.28</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0.11</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.17</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>-0.17</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>11.83</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.39</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>4.56</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD7" t="n">
         <v>1.11</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BE7" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="BF7" t="n">
         <v>4.5</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="BG7" t="n">
         <v>1.72</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="BH7" t="n">
         <v>-0.11</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="BI7" t="n">
         <v>3.17</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="BJ7" t="n">
         <v>5.67</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="BK7" t="n">
         <v>8.83</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="BL7" t="n">
         <v>5.89</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="BM7" t="n">
         <v>50.44</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="BN7" t="n">
         <v>1.83</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="BO7" t="n">
         <v>1.94</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BP7" t="n">
         <v>2.56</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="BQ7" t="n">
         <v>0.22</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="BR7" t="n">
         <v>1.39</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="BS7" t="n">
         <v>59.44</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="BT7" t="n">
         <v>100.56</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BU7" t="n">
         <v>1.22</v>
       </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BX7" t="n">
         <v>-0.11</v>
       </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>0.28</v>
       </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
         <v>12.89</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="CC7" t="n">
         <v>0.67</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="CD7" t="n">
         <v>5.11</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="CE7" t="n">
         <v>4.42</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="CF7" t="n">
         <v>1.31</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="CG7" t="n">
         <v>-0.16</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="CH7" t="n">
         <v>3.5</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="CI7" t="n">
         <v>5.67</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="CJ7" t="n">
         <v>9.16</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="CK7" t="n">
         <v>5.86</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="CL7" t="n">
         <v>50.75</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CM7" t="n">
         <v>1.38</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="CN7" t="n">
         <v>2.11</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="CO7" t="n">
         <v>2.31</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="CP7" t="n">
         <v>0.14</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CQ7" t="n">
         <v>1</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CR7" t="n">
         <v>62.39</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CS7" t="n">
         <v>104.28</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CT7" t="n">
         <v>1.28</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CU7" t="n">
         <v>-0.08</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CV7" t="n">
         <v>-0.12</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CW7" t="n">
         <v>-0.2</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CX7" t="n">
         <v>0.06</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CY7" t="n">
         <v>0.23</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CZ7" t="n">
         <v>-0.08</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="DA7" t="n">
         <v>12.36</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="DB7" t="n">
         <v>0.53</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="DC7" t="n">
         <v>4.84</v>
       </c>
     </row>
@@ -2502,207 +3078,279 @@
         <v>2.68</v>
       </c>
       <c r="P8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.11</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>2.42</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.74</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>1.74</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>62.58</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>104.68</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>1.57</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.11</v>
       </c>
       <c r="X8" t="n">
         <v>0.11</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.16</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0.05</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>13.84</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>1.84</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>4.42</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD8" t="n">
         <v>1</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="BE8" t="n">
         <v>1.18</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="BF8" t="n">
         <v>4.35</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="BG8" t="n">
         <v>2.12</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="BH8" t="n">
         <v>0.18</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="BI8" t="n">
         <v>4.35</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="BJ8" t="n">
         <v>6</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="BK8" t="n">
         <v>10.35</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="BL8" t="n">
         <v>3.94</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="BM8" t="n">
         <v>55.65</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="BN8" t="n">
         <v>2.41</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="BO8" t="n">
         <v>1.88</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BP8" t="n">
         <v>1.71</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="BQ8" t="n">
         <v>0.88</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="BR8" t="n">
         <v>1.41</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="BS8" t="n">
         <v>56.35</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="BT8" t="n">
         <v>97.34999999999999</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="BU8" t="n">
         <v>1.31</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="BV8" t="n">
         <v>0.18</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BW8" t="n">
         <v>0.12</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BX8" t="n">
         <v>0.06</v>
       </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>0.24</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="CA8" t="n">
         <v>0.12</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="CB8" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="CC8" t="n">
         <v>1</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="CD8" t="n">
         <v>2.94</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="CE8" t="n">
         <v>4.39</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="CF8" t="n">
         <v>2.17</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="CG8" t="n">
         <v>0.22</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="CH8" t="n">
         <v>4.83</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="CI8" t="n">
         <v>6.28</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="CJ8" t="n">
         <v>11.11</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="CK8" t="n">
         <v>5.5</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="CL8" t="n">
         <v>55.44</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="CM8" t="n">
         <v>2.55</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="CN8" t="n">
         <v>2</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="CO8" t="n">
         <v>2.08</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="CP8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="CQ8" t="n">
         <v>1.58</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="CR8" t="n">
         <v>59.64</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="CS8" t="n">
         <v>101.22</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CT8" t="n">
         <v>1.45</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CU8" t="n">
         <v>0.14</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CV8" t="n">
         <v>0.11</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CW8" t="n">
         <v>0.03</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CX8" t="n">
         <v>0.03</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CY8" t="n">
         <v>0.2</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CZ8" t="n">
         <v>0.08</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="DA8" t="n">
         <v>11.78</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="DB8" t="n">
         <v>1.44</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="DC8" t="n">
         <v>3.72</v>
       </c>
     </row>
@@ -2755,207 +3403,279 @@
         <v>2.59</v>
       </c>
       <c r="P9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>2.06</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.88</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1.53</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>60.88</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>102.29</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>1.23</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.06</v>
       </c>
       <c r="X9" t="n">
         <v>0.06</v>
       </c>
       <c r="Y9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z9" t="n">
         <v>-0.12</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.53</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0.18</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>11.47</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>1.18</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>3.53</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD9" t="n">
         <v>1.84</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="BE9" t="n">
         <v>1.11</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="BF9" t="n">
         <v>3.63</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="BG9" t="n">
         <v>3.53</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="BH9" t="n">
         <v>0.21</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="BI9" t="n">
         <v>3.68</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="BJ9" t="n">
         <v>6.21</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="BK9" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="BL9" t="n">
         <v>8.16</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="BM9" t="n">
         <v>44.21</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="BN9" t="n">
         <v>3.89</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="BO9" t="n">
         <v>1.68</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BP9" t="n">
         <v>1.95</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="BQ9" t="n">
         <v>1.05</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="BR9" t="n">
         <v>2.68</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="BS9" t="n">
         <v>60.21</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="BT9" t="n">
         <v>94.37</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="BU9" t="n">
         <v>1.32</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BV9" t="n">
         <v>0.16</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BW9" t="n">
         <v>0.16</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
         <v>0.21</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BZ9" t="n">
         <v>0.26</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="CA9" t="n">
         <v>0.05</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="CB9" t="n">
         <v>13.21</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="CC9" t="n">
         <v>2</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="CD9" t="n">
         <v>5.79</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="CE9" t="n">
         <v>4.14</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="CF9" t="n">
         <v>3</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="CG9" t="n">
         <v>0.11</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="CH9" t="n">
         <v>3.67</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="CI9" t="n">
         <v>5.5</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="CJ9" t="n">
         <v>9.16</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="CK9" t="n">
         <v>7.64</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="CL9" t="n">
         <v>45.03</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="CM9" t="n">
         <v>3.28</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="CN9" t="n">
         <v>1.8</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="CO9" t="n">
         <v>2</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="CP9" t="n">
         <v>0.97</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CQ9" t="n">
         <v>2.14</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CR9" t="n">
         <v>60.53</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CS9" t="n">
         <v>98.11</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CT9" t="n">
         <v>1.28</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CU9" t="n">
         <v>0.11</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CV9" t="n">
         <v>0.11</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CW9" t="n">
         <v>-0.06</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CX9" t="n">
         <v>0.14</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CY9" t="n">
         <v>0.39</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CZ9" t="n">
         <v>0.11</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="DA9" t="n">
         <v>12.39</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="DB9" t="n">
         <v>1.61</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="DC9" t="n">
         <v>4.72</v>
       </c>
     </row>
@@ -3008,207 +3728,279 @@
         <v>2.4</v>
       </c>
       <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.9</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>1.45</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>111.5</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>1.66</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.15</v>
       </c>
       <c r="X10" t="n">
         <v>0.15</v>
       </c>
       <c r="Y10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z10" t="n">
         <v>-0.05</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>14.3</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.85</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>4.1</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD10" t="n">
         <v>0.76</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="BE10" t="n">
         <v>1.71</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="BF10" t="n">
         <v>5.12</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="BG10" t="n">
         <v>2.59</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="BH10" t="n">
         <v>0.12</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="BI10" t="n">
         <v>4.82</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="BJ10" t="n">
         <v>7.59</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="BK10" t="n">
         <v>12.41</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="BL10" t="n">
         <v>6.59</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="BM10" t="n">
         <v>53.53</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="BN10" t="n">
         <v>2.76</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="BO10" t="n">
         <v>2.24</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BP10" t="n">
         <v>2.88</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BQ10" t="n">
         <v>0.82</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="BR10" t="n">
         <v>1.88</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="BS10" t="n">
         <v>70.06</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="BT10" t="n">
         <v>101.41</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="BU10" t="n">
         <v>1.63</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BV10" t="n">
         <v>0.29</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BW10" t="n">
         <v>0.29</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
         <v>0.12</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BZ10" t="n">
         <v>0.65</v>
       </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
         <v>13.53</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="CC10" t="n">
         <v>1.24</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="CD10" t="n">
         <v>5</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="CE10" t="n">
         <v>5.65</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="CF10" t="n">
         <v>2.49</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="CG10" t="n">
         <v>0.03</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="CH10" t="n">
         <v>5.03</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="CI10" t="n">
         <v>7.41</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="CJ10" t="n">
         <v>12.43</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="CK10" t="n">
         <v>7.46</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="CL10" t="n">
         <v>54</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="CM10" t="n">
         <v>2.57</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="CN10" t="n">
         <v>2.22</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="CO10" t="n">
         <v>2.94</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="CP10" t="n">
         <v>0.86</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CQ10" t="n">
         <v>1.65</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CR10" t="n">
         <v>70.08</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CS10" t="n">
         <v>106.86</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CT10" t="n">
         <v>1.65</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CU10" t="n">
         <v>0.21</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CV10" t="n">
         <v>0.21</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CW10" t="n">
         <v>-0.03</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CX10" t="n">
         <v>0.19</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CY10" t="n">
         <v>0.49</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CZ10" t="n">
         <v>0.03</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="DA10" t="n">
         <v>13.95</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="DB10" t="n">
         <v>1.03</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="DC10" t="n">
         <v>4.51</v>
       </c>
     </row>
@@ -3261,207 +4053,279 @@
         <v>1.74</v>
       </c>
       <c r="P11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>3.32</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.58</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>1.11</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>71.47</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>124.16</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>1.7</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.21</v>
       </c>
       <c r="X11" t="n">
         <v>0.21</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.16</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.26</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>14.58</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>2</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>4.05</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD11" t="n">
         <v>1.11</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="BE11" t="n">
         <v>1.61</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="BF11" t="n">
         <v>5.44</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="BG11" t="n">
         <v>2.67</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="BH11" t="n">
         <v>0.33</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="BI11" t="n">
         <v>5.39</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="BJ11" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="BK11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="BL11" t="n">
         <v>6.28</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="BM11" t="n">
         <v>55.83</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="BN11" t="n">
         <v>3.22</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="BO11" t="n">
         <v>2.33</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="BP11" t="n">
         <v>2.78</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="BQ11" t="n">
         <v>0.78</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="BR11" t="n">
         <v>2.22</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="BS11" t="n">
         <v>74.11</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="BT11" t="n">
         <v>113</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="BU11" t="n">
         <v>1.77</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="BV11" t="n">
         <v>0.11</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="BW11" t="n">
         <v>0.06</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BX11" t="n">
         <v>0.06</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BY11" t="n">
         <v>0.06</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BZ11" t="n">
         <v>0.67</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="CA11" t="n">
         <v>0.11</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="CB11" t="n">
         <v>15.33</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="CC11" t="n">
         <v>1.72</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="CD11" t="n">
         <v>2.83</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="CE11" t="n">
         <v>5.75</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="CF11" t="n">
         <v>2.14</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="CG11" t="n">
         <v>0.19</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="CH11" t="n">
         <v>5.41</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="CI11" t="n">
         <v>8.33</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="CJ11" t="n">
         <v>13.73</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="CK11" t="n">
         <v>6.16</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="CL11" t="n">
         <v>57.05</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="CM11" t="n">
         <v>2.46</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="CN11" t="n">
         <v>2.29</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="CO11" t="n">
         <v>3.06</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="CP11" t="n">
         <v>0.68</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="CQ11" t="n">
         <v>1.65</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="CR11" t="n">
         <v>72.75</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="CS11" t="n">
         <v>118.73</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="CT11" t="n">
         <v>1.73</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="CU11" t="n">
         <v>0.16</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="CV11" t="n">
         <v>0.14</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="CW11" t="n">
         <v>0.03</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="CX11" t="n">
         <v>0.11</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CY11" t="n">
         <v>0.46</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CZ11" t="n">
         <v>0.05</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="DA11" t="n">
         <v>14.94</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="DB11" t="n">
         <v>1.86</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="DC11" t="n">
         <v>3.46</v>
       </c>
     </row>
@@ -3514,207 +4378,279 @@
         <v>2.78</v>
       </c>
       <c r="P12" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>2.72</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.89</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>1.89</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>70.72</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>97.78</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>1.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.06</v>
       </c>
       <c r="X12" t="n">
         <v>0.06</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.22</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>17.11</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>2.28</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>5.94</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD12" t="n">
         <v>1.06</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="BE12" t="n">
         <v>0.83</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="BF12" t="n">
         <v>3.56</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="BG12" t="n">
         <v>2</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="BH12" t="n">
         <v>0.06</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="BI12" t="n">
         <v>3.67</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="BJ12" t="n">
         <v>6.33</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="BK12" t="n">
         <v>10</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="BL12" t="n">
         <v>5.28</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="BM12" t="n">
         <v>42.89</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="BN12" t="n">
         <v>2.11</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="BO12" t="n">
         <v>1.83</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="BP12" t="n">
         <v>1.72</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="BQ12" t="n">
         <v>0.61</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="BR12" t="n">
         <v>1.44</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="BS12" t="n">
         <v>51.17</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="BT12" t="n">
         <v>91.72</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="BU12" t="n">
         <v>1.26</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="BV12" t="n">
         <v>0.06</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>60.94</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>94.75</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>1.33</v>
       </c>
       <c r="BW12" t="n">
         <v>0.06</v>
       </c>
       <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="CA12" t="n">
         <v>0.06</v>
       </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
+      <c r="CB12" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="n">
         <v>0.11</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CY12" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CZ12" t="n">
         <v>0.03</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="DA12" t="n">
         <v>14.61</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="DB12" t="n">
         <v>1.78</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="DC12" t="n">
         <v>5.39</v>
       </c>
     </row>
@@ -3767,207 +4703,279 @@
         <v>3.17</v>
       </c>
       <c r="P13" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>2.61</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>1.11</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>2.06</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>65.06</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>99.06</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>1.39</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.22</v>
       </c>
       <c r="X13" t="n">
         <v>0.22</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.11</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.28</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
       <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>16.22</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>1.72</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>4.28</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AX13" t="n">
         <v>1.61</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AY13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE13" t="n">
         <v>0.83</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="BF13" t="n">
         <v>4.72</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="BG13" t="n">
         <v>2.39</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="BH13" t="n">
         <v>0.17</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="BI13" t="n">
         <v>3.56</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="BJ13" t="n">
         <v>5.94</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="BK13" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="BL13" t="n">
         <v>7.28</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="BM13" t="n">
         <v>43.72</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="BN13" t="n">
         <v>2.56</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="BO13" t="n">
         <v>2</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="BP13" t="n">
         <v>2.5</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="BQ13" t="n">
         <v>0.78</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="BR13" t="n">
         <v>1.78</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="BS13" t="n">
         <v>61.83</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="BT13" t="n">
         <v>100.17</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="BU13" t="n">
         <v>1.3</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="BV13" t="n">
         <v>0.17</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="BW13" t="n">
         <v>0.17</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
         <v>0.11</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BZ13" t="n">
         <v>0.44</v>
       </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
         <v>13.94</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="CC13" t="n">
         <v>1.44</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="CD13" t="n">
         <v>6.28</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="CE13" t="n">
         <v>4.94</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="CF13" t="n">
         <v>2.75</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="CG13" t="n">
         <v>0.12</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="CH13" t="n">
         <v>3.72</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="CI13" t="n">
         <v>6.52</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="CJ13" t="n">
         <v>10.25</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="CK13" t="n">
         <v>7.86</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="CL13" t="n">
         <v>46.22</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="CM13" t="n">
         <v>2.86</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="CN13" t="n">
         <v>2.03</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="CO13" t="n">
         <v>2.55</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="CP13" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="CQ13" t="n">
         <v>1.92</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="CR13" t="n">
         <v>63.44</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="CS13" t="n">
         <v>99.62</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="CT13" t="n">
         <v>1.34</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="CU13" t="n">
         <v>0.19</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="CV13" t="n">
         <v>0.19</v>
       </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
         <v>0.11</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CY13" t="n">
         <v>0.36</v>
       </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
         <v>15.08</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="DB13" t="n">
         <v>1.58</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="DC13" t="n">
         <v>5.28</v>
       </c>
     </row>
@@ -4020,207 +5028,279 @@
         <v>2.74</v>
       </c>
       <c r="P14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>2.63</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>1.11</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>1.53</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>65.84</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>105.95</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>1.52</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.05</v>
       </c>
       <c r="X14" t="n">
         <v>0.05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>0.21</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>0.11</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>17</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>1.42</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>5.26</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD14" t="n">
         <v>1.24</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="BE14" t="n">
         <v>1.18</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="BF14" t="n">
         <v>4.88</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="BG14" t="n">
         <v>1.82</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="BH14" t="n">
         <v>0.18</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="BI14" t="n">
         <v>3.88</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="BJ14" t="n">
         <v>8.82</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="BK14" t="n">
         <v>12.71</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="BL14" t="n">
         <v>6</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="BM14" t="n">
         <v>48.94</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="BN14" t="n">
         <v>2.24</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="BO14" t="n">
         <v>2.12</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="BP14" t="n">
         <v>2.35</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="BQ14" t="n">
         <v>0.53</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="BR14" t="n">
         <v>1.47</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="BS14" t="n">
         <v>56.82</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="BT14" t="n">
         <v>91.47</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="BU14" t="n">
         <v>1.47</v>
       </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
         <v>-0.06</v>
       </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
         <v>0.47</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="CA14" t="n">
         <v>-0.06</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="CB14" t="n">
         <v>12.41</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="CC14" t="n">
         <v>1</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="CD14" t="n">
         <v>3.71</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="CE14" t="n">
         <v>4.66</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="CF14" t="n">
         <v>2.08</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="CG14" t="n">
         <v>0.25</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="CH14" t="n">
         <v>4</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="CI14" t="n">
         <v>8.33</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="CJ14" t="n">
         <v>12.34</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="CK14" t="n">
         <v>7.67</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="CL14" t="n">
         <v>48.86</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="CM14" t="n">
         <v>2.5</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="CN14" t="n">
         <v>1.97</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="CO14" t="n">
         <v>2.5</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="CP14" t="n">
         <v>0.84</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="CQ14" t="n">
         <v>1.5</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="CR14" t="n">
         <v>61.58</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="CS14" t="n">
         <v>99.11</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="CT14" t="n">
         <v>1.5</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="CU14" t="n">
         <v>0.03</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="CV14" t="n">
         <v>0.03</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="CW14" t="n">
         <v>-0.03</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="CX14" t="n">
         <v>0.03</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CY14" t="n">
         <v>0.33</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CZ14" t="n">
         <v>0.03</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="DA14" t="n">
         <v>14.83</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="DB14" t="n">
         <v>1.22</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="DC14" t="n">
         <v>4.53</v>
       </c>
     </row>
@@ -4276,204 +5356,276 @@
         <v>2</v>
       </c>
       <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.5</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>1</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>2</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>65.17</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>101.22</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>1.32</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>0.06</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>-0.06</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.06</v>
       </c>
       <c r="Z15" t="n">
         <v>0.06</v>
       </c>
       <c r="AA15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0.44</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>14.39</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>1.72</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>4.44</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD15" t="n">
         <v>1.33</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="BE15" t="n">
         <v>0.67</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="BF15" t="n">
         <v>4.94</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="BG15" t="n">
         <v>3.06</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
         <v>3.17</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="BJ15" t="n">
         <v>5.39</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="BK15" t="n">
         <v>8.56</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="BL15" t="n">
         <v>6.61</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="BM15" t="n">
         <v>47</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="BN15" t="n">
         <v>3.06</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="BO15" t="n">
         <v>2.06</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="BP15" t="n">
         <v>2.5</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="BQ15" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="BR15" t="n">
         <v>2.11</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="BS15" t="n">
         <v>63.06</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="BT15" t="n">
         <v>97.67</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="BU15" t="n">
         <v>1.2</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="BV15" t="n">
         <v>0.17</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="BW15" t="n">
         <v>0.11</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BX15" t="n">
         <v>0.06</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BY15" t="n">
         <v>0.11</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BZ15" t="n">
         <v>0.28</v>
       </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
         <v>12.61</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="CC15" t="n">
         <v>1.11</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="CD15" t="n">
         <v>4.67</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="CE15" t="n">
         <v>4.97</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="CF15" t="n">
         <v>2.92</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="CG15" t="n">
         <v>0.11</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="CH15" t="n">
         <v>3.3</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="CI15" t="n">
         <v>5.75</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="CJ15" t="n">
         <v>9.06</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="CK15" t="n">
         <v>8.02</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="CL15" t="n">
         <v>46.86</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="CM15" t="n">
         <v>3.17</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="CN15" t="n">
         <v>2.03</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="CO15" t="n">
         <v>2.5</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="CP15" t="n">
         <v>0.97</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="CQ15" t="n">
         <v>2.05</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="CR15" t="n">
         <v>64.11</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="CS15" t="n">
         <v>99.44</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="CT15" t="n">
         <v>1.26</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="CU15" t="n">
         <v>0.12</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="CV15" t="n">
         <v>0.02</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="CW15" t="n">
         <v>0.06</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CX15" t="n">
         <v>0.08</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CY15" t="n">
         <v>0.36</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CZ15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="DA15" t="n">
         <v>13.5</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="DB15" t="n">
         <v>1.42</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="DC15" t="n">
         <v>4.56</v>
       </c>
     </row>
@@ -4526,207 +5678,279 @@
         <v>2.82</v>
       </c>
       <c r="P16" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.24</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>2.18</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>1</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>1.82</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>59.82</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>100.76</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>1.42</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.06</v>
       </c>
       <c r="X16" t="n">
         <v>0.06</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.12</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>0.47</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>0.18</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>11.82</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>0.82</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>3.88</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD16" t="n">
         <v>1.53</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="BE16" t="n">
         <v>1.47</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="BF16" t="n">
         <v>5.58</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="BG16" t="n">
         <v>2.42</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="BH16" t="n">
         <v>0.21</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="BI16" t="n">
         <v>5.11</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="BJ16" t="n">
         <v>6.63</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="BK16" t="n">
         <v>11.74</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="BL16" t="n">
         <v>6.84</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="BM16" t="n">
         <v>54.11</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="BN16" t="n">
         <v>2.95</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="BO16" t="n">
         <v>2.42</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="BP16" t="n">
         <v>3.11</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="BQ16" t="n">
         <v>0.84</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="BR16" t="n">
         <v>1.79</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="BS16" t="n">
         <v>67.05</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="BT16" t="n">
         <v>102.16</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="BU16" t="n">
         <v>1.58</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="BV16" t="n">
         <v>0.16</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="BW16" t="n">
         <v>0.16</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="BX16" t="n">
         <v>-0.05</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BY16" t="n">
         <v>0.05</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BZ16" t="n">
         <v>0.58</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="CA16" t="n">
         <v>0.05</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="CB16" t="n">
         <v>14.05</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="CC16" t="n">
         <v>1</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="CD16" t="n">
         <v>3.26</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="CE16" t="n">
         <v>5.14</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="CF16" t="n">
         <v>2.56</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="CG16" t="n">
         <v>0.17</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="CH16" t="n">
         <v>4.92</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="CI16" t="n">
         <v>6.72</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="CJ16" t="n">
         <v>11.64</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="CK16" t="n">
         <v>6.64</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="CL16" t="n">
         <v>53.61</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="CM16" t="n">
         <v>2.89</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="CN16" t="n">
         <v>2.34</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="CO16" t="n">
         <v>2.67</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="CP16" t="n">
         <v>0.92</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="CQ16" t="n">
         <v>1.8</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="CR16" t="n">
         <v>63.64</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="CS16" t="n">
         <v>101.5</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="CT16" t="n">
         <v>1.5</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="CU16" t="n">
         <v>0.11</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="CV16" t="n">
         <v>0.11</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="CW16" t="n">
         <v>-0.03</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CX16" t="n">
         <v>0.08</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CY16" t="n">
         <v>0.53</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CZ16" t="n">
         <v>0.11</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="DA16" t="n">
         <v>13</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="DB16" t="n">
         <v>0.91</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="DC16" t="n">
         <v>3.55</v>
       </c>
     </row>
@@ -4779,207 +6003,279 @@
         <v>3.41</v>
       </c>
       <c r="P17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.35</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>2.18</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>1.18</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>2.18</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>69.23999999999999</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>107.76</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>1.38</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.29</v>
       </c>
       <c r="X17" t="n">
         <v>0.29</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.47</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>14.65</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>1.29</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>3</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD17" t="n">
         <v>1.58</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="BE17" t="n">
         <v>0.74</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="BF17" t="n">
         <v>3.89</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="BG17" t="n">
         <v>2.32</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="BH17" t="n">
         <v>0.11</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="BI17" t="n">
         <v>2.79</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="BJ17" t="n">
         <v>6.47</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="BK17" t="n">
         <v>9.26</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="BL17" t="n">
         <v>7.95</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="BM17" t="n">
         <v>49.05</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="BN17" t="n">
         <v>2.53</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="BO17" t="n">
         <v>1.47</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="BP17" t="n">
         <v>2.05</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="BQ17" t="n">
         <v>0.63</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="BR17" t="n">
         <v>1.79</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="BS17" t="n">
         <v>58.74</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="BT17" t="n">
         <v>102.16</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="BU17" t="n">
         <v>1.21</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="BV17" t="n">
         <v>0.11</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="BW17" t="n">
         <v>0.11</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="BX17" t="n">
         <v>-0.05</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BY17" t="n">
         <v>0.11</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BZ17" t="n">
         <v>0.37</v>
       </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
         <v>14.53</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="CC17" t="n">
         <v>1.37</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="CD17" t="n">
         <v>4.74</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="CE17" t="n">
         <v>4.19</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="CF17" t="n">
         <v>2.7</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="CG17" t="n">
         <v>0.17</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="CH17" t="n">
         <v>2.97</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="CI17" t="n">
         <v>6.81</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="CJ17" t="n">
         <v>9.77</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="CK17" t="n">
         <v>7.95</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="CL17" t="n">
         <v>49.94</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="CM17" t="n">
         <v>2.95</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="CN17" t="n">
         <v>1.89</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="CO17" t="n">
         <v>2.11</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="CP17" t="n">
         <v>0.89</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="CQ17" t="n">
         <v>1.97</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="CR17" t="n">
         <v>63.7</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="CS17" t="n">
         <v>104.8</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="CT17" t="n">
         <v>1.29</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="CU17" t="n">
         <v>0.19</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="CV17" t="n">
         <v>0.19</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="CW17" t="n">
         <v>-0.03</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CX17" t="n">
         <v>0.06</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CY17" t="n">
         <v>0.42</v>
       </c>
-      <c r="CB17" t="n">
+      <c r="CZ17" t="n">
         <v>0.03</v>
       </c>
-      <c r="CC17" t="n">
+      <c r="DA17" t="n">
         <v>14.59</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="DB17" t="n">
         <v>1.33</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="DC17" t="n">
         <v>3.92</v>
       </c>
     </row>
